--- a/3.6/Evaluation_Serverless.xlsx
+++ b/3.6/Evaluation_Serverless.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD6FD9D-C8B2-4C13-93F5-1F4C41526D88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE72627-0652-41A8-8343-76EF339D5006}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metriken" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Kategorie</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Frage</t>
   </si>
   <si>
-    <t>Ist die Entwicklung schnell zu erlernen?</t>
-  </si>
-  <si>
     <t>Kann die Anwendung schnell umgesetzt werden?</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Wie viele Frameworks werden benötigt?</t>
   </si>
   <si>
-    <t>Anzahl genutzter Frameworks</t>
-  </si>
-  <si>
     <t>Können die Frameworks einfach genutzt und eingebunden werden?</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>Normalisiertes Ergebnis</t>
   </si>
   <si>
-    <t>Entwicklung: Ordinalskala (sehr gut, gut, schlecht)</t>
-  </si>
-  <si>
     <t>Erleichterung durch Frameworks: Ordinalskala (sehr gut, gut, schlecht)</t>
   </si>
   <si>
@@ -249,6 +240,33 @@
   </si>
   <si>
     <t>Verschlüsselung der Daten: Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>Anzahl genutzter Frameworks/Bibliotheken</t>
+  </si>
+  <si>
+    <t>leicht umsetzbar</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>gar nicht</t>
+  </si>
+  <si>
+    <t>sehr gut</t>
+  </si>
+  <si>
+    <t>automatisch</t>
+  </si>
+  <si>
+    <t>Erlernbarkeit: Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Sind die Entwicklungswerkzeuge schnell zu erlernen?</t>
   </si>
 </sst>
 </file>
@@ -393,86 +411,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,477 +788,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="22"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7">
+      <c r="A4" s="23"/>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9">
+      <c r="A5" s="23"/>
+      <c r="B5" s="21">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="22">
+        <v>81</v>
+      </c>
+      <c r="E5" s="14">
         <v>3</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="20">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>65</v>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="22">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14">
         <v>5</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7">
+      <c r="A10" s="24"/>
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="20">
-        <v>6</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="19">
-        <v>7</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7">
-        <v>7</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="E12" s="13">
         <v>8</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>68</v>
+      <c r="F12" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9">
+      <c r="A13" s="23"/>
+      <c r="B13" s="21">
         <v>8</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="22">
+        <v>57</v>
+      </c>
+      <c r="E13" s="14">
         <v>9</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="20">
         <v>9</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="D15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="15">
         <v>10</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>69</v>
+      <c r="F15" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7">
+      <c r="A17" s="23"/>
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="13">
         <v>11</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>45</v>
+      <c r="F17" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9">
+      <c r="A18" s="23"/>
+      <c r="B18" s="21">
         <v>11</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="22">
+        <v>44</v>
+      </c>
+      <c r="E18" s="14">
         <v>12</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7">
+      <c r="A20" s="24"/>
+      <c r="B20" s="4">
         <v>12</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="13">
+        <v>13</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="12">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="13">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>15</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="20">
-        <v>13</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10">
-        <v>13</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="19">
-        <v>14</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
-        <v>14</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="E23" s="15">
+        <v>16</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="20">
-        <v>15</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>15</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="21">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20">
         <v>16</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="C25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8">
-        <v>16</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="21">
+      <c r="E25" s="15">
         <v>17</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>47</v>
+      <c r="F25" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7">
+      <c r="A27" s="23"/>
+      <c r="B27" s="4">
         <v>17</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="13">
+        <v>18</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="4">
+        <v>18</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="13">
+        <v>19</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="20">
-        <v>18</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="E29" s="12">
+        <v>20</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="6">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7">
-        <v>18</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="20">
-        <v>19</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10">
-        <v>19</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="19">
-        <v>20</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="11">
-        <v>20</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="E30" s="13">
         <v>21</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>75</v>
+      <c r="F30" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,18 +1271,27 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -1279,28 +1306,19 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1311,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3ECF3-CD24-491F-B6FE-28374C49E45B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,364 +1342,472 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>3</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+        <v>74</v>
+      </c>
+      <c r="C11" s="30">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>6</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>8</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>9</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>10</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>11</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>12</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>13</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>14</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>15</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>16</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>17</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>18</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>19</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>20</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>21</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A43:A44"/>
@@ -1698,78 +1824,6 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.6/Evaluation_Serverless.xlsx
+++ b/3.6/Evaluation_Serverless.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE72627-0652-41A8-8343-76EF339D5006}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF5E90-934A-45F6-92D2-6F8107FF79C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-1530" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metriken" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>Kategorie</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Wiederverwendung von bestehenden Komponenten</t>
   </si>
   <si>
-    <t>Kosten</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -113,15 +110,9 @@
     <t>Verschlüsselung von Datenbankeinträgen</t>
   </si>
   <si>
-    <t>Betriebskosten</t>
-  </si>
-  <si>
     <t>Messung der Entwicklungszeit</t>
   </si>
   <si>
-    <t>LoC für die Umsetzung einer Funktionalität</t>
-  </si>
-  <si>
     <t>Frage</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>Besteht die Möglichkeit eines automatischen Deployments?</t>
   </si>
   <si>
-    <t>Wie viel Code ist zur Implementierung einer Funktionalität notwenig?</t>
-  </si>
-  <si>
     <t>Können die Tests lokal ausgeführt werden?</t>
   </si>
   <si>
@@ -158,21 +146,12 @@
     <t>Wie lange benötigt die Ausführung aller Testfälle?</t>
   </si>
   <si>
-    <t>Zeitmessung</t>
-  </si>
-  <si>
     <t>Ist Testautomatisierung möglich?</t>
   </si>
   <si>
     <t>Können bestehende Komponenten wiederverwendet werden?</t>
   </si>
   <si>
-    <t>Wie viel kostet der Betrieb?</t>
-  </si>
-  <si>
-    <t>Hochrechnung der Betriebskosten</t>
-  </si>
-  <si>
     <t>Müssen bestehende Komponenten angepasst werden?</t>
   </si>
   <si>
@@ -218,21 +197,12 @@
     <t>Toolunterstützung für Deployment: Ordinalskala (verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
   <si>
-    <t>Automatisches Deployment: Ja, Nein</t>
-  </si>
-  <si>
-    <t>lokale Testausführung: Ordinalskala (sehr gut, gut, schlecht)</t>
-  </si>
-  <si>
     <t>Testautomatisierung: Ordinalskala (verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
   <si>
     <t>Wiederverwendbarkeit: Ordinalskala (sehr gut, gut, schlecht)</t>
   </si>
   <si>
-    <t>Anpassbarkeit: Ordinalskala(gar nicht, wenig, stark)</t>
-  </si>
-  <si>
     <t>Anpassung an Lastzunahme: Ordinalskala(automatisch, manuell, nicht möglich)</t>
   </si>
   <si>
@@ -251,9 +221,6 @@
     <t>leicht umsetzbar</t>
   </si>
   <si>
-    <t>ja</t>
-  </si>
-  <si>
     <t>gar nicht</t>
   </si>
   <si>
@@ -267,6 +234,36 @@
   </si>
   <si>
     <t>Sind die Entwicklungswerkzeuge schnell zu erlernen?</t>
+  </si>
+  <si>
+    <t>Automatisches Deployment: Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>5 AT</t>
+  </si>
+  <si>
+    <t>Wie viel Code ist zur Implementierung der ersten Funktionalität notwenig?</t>
+  </si>
+  <si>
+    <t>LoC für die Umsetzung der ersten Funktionalität</t>
+  </si>
+  <si>
+    <t>Wie viel Code ist zur Implementierung einer weiteren Funktionalität notwenig?</t>
+  </si>
+  <si>
+    <t>LoC für die Umsetzung einer weiteren Funktionalität</t>
+  </si>
+  <si>
+    <t>Beeinträchtigung des bestehenden Codes bei Erweiterungen: Ordinalskala(gar nicht, wenig, stark)</t>
+  </si>
+  <si>
+    <t>Lokale Testausführung: Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Zeitmessung der Ausführungsdauer</t>
+  </si>
+  <si>
+    <t>Messung der Antwortzeit</t>
   </si>
 </sst>
 </file>
@@ -402,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,29 +439,29 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,9 +484,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -774,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,10 +801,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -814,451 +817,445 @@
       <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="21">
         <v>1</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>31</v>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="4">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>32</v>
+      <c r="F4" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="21">
+      <c r="B5" s="19"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="F6" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="D7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B9" s="20">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="13">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="12">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="E13" s="12">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="14">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="E14" s="13">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="19">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="13">
-        <v>6</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="12">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="13">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21">
-        <v>8</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="14">
-        <v>9</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="20">
-        <v>9</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>41</v>
+      <c r="D15" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="15">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>66</v>
+      <c r="F15" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4">
-        <v>10</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20">
+        <v>9</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="21">
         <v>11</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>43</v>
+      <c r="F17" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="21">
+      <c r="B18" s="19"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="13">
+        <v>12</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19">
         <v>11</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="15">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="4">
         <v>12</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="4">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="13">
+        <v>14</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
         <v>13</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="12">
+        <v>15</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="4">
         <v>14</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="4">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="13">
-        <v>15</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20">
-        <v>15</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="D24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="13">
         <v>16</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="20">
+        <v>15</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="20">
-        <v>16</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="21">
         <v>17</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>45</v>
+      <c r="F25" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E27" s="13">
         <v>18</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E28" s="13">
         <v>19</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>19</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E29" s="12">
         <v>20</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E30" s="13">
         <v>21</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,55 +1267,54 @@
       <c r="F31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1329,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3ECF3-CD24-491F-B6FE-28374C49E45B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,16 +1339,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,403 +1361,420 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="31">
+        <v>93</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="30">
-        <v>0.5</v>
+      <c r="B7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="29">
+        <v>39</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="B9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="29">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="30">
-        <v>5</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0.2</v>
+      <c r="B11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0.5</v>
+      <c r="B13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="29">
+        <v>5</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="B15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="29">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>8</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="30">
-        <v>1</v>
+      <c r="D17" s="29">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>9</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>10</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>11</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="B23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>12</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="B25" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>13</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="B27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>14</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="30">
-        <v>1</v>
-      </c>
+      <c r="B29" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>15</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="30">
+      <c r="B31" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>16</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>17</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="B35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>18</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>19</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="30">
+      <c r="B39" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>20</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="B41" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>21</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C15:C16"/>
@@ -1771,42 +1784,35 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -1823,7 +1829,7 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.6/Evaluation_Serverless.xlsx
+++ b/3.6/Evaluation_Serverless.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF5E90-934A-45F6-92D2-6F8107FF79C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE1E7F1-A3D7-4F32-9A1A-89D90C35FB9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-1530" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metriken" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>Kategorie</t>
   </si>
@@ -161,12 +161,6 @@
     <t>Wird Lastzunahme angemessen ausgeglichen?</t>
   </si>
   <si>
-    <t>Wie viele Daten können in einer bestimmen Zeitspanne vom System verarbeitet werden?</t>
-  </si>
-  <si>
-    <t>Messung des Durchsatzes in einer bestimmten Zeitspanne</t>
-  </si>
-  <si>
     <t>Kann ein angemessener Zugriffsschutz implementiert werden?</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>Anzahl genutzter Frameworks/Bibliotheken</t>
   </si>
   <si>
-    <t>leicht umsetzbar</t>
-  </si>
-  <si>
     <t>gar nicht</t>
   </si>
   <si>
@@ -264,6 +255,24 @@
   </si>
   <si>
     <t>Messung der Antwortzeit</t>
+  </si>
+  <si>
+    <t>verfügbar</t>
+  </si>
+  <si>
+    <t>Wie viele Daten können in einer bestimmten Zeitspanne vom System verarbeitet werden?</t>
+  </si>
+  <si>
+    <t>Messung des Durchsatzes bei 10.000 Anfragen mit 255 echt parallelen Clients</t>
+  </si>
+  <si>
+    <t>53,2 Anfragen/sec</t>
+  </si>
+  <si>
+    <t>332 ms</t>
+  </si>
+  <si>
+    <t>enthalten</t>
   </si>
 </sst>
 </file>
@@ -295,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -395,11 +404,268 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -474,26 +740,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +1122,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +1148,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -847,13 +1191,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" s="15">
         <v>2</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,13 +1213,13 @@
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="13">
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,13 +1231,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="15">
         <v>4</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -981,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -999,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,13 +1355,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="15">
         <v>10</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1135,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1153,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,13 +1537,13 @@
         <v>24</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E27" s="13">
         <v>18</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1217,7 +1561,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1231,13 +1575,13 @@
         <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="12">
         <v>20</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1249,13 +1593,13 @@
         <v>28</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="13">
         <v>21</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3ECF3-CD24-491F-B6FE-28374C49E45B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,407 +1682,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>52</v>
+      <c r="A1" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="44">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="49">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="47">
+        <v>93</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="37">
+        <v>39</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="43"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>5</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C11" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="37">
+        <v>5</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="C15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="58">
+        <v>8</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="29">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="52">
+        <v>9</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="52">
+        <v>10</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="37">
+        <v>16</v>
+      </c>
+      <c r="D21" s="36">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="43"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>11</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>12</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="36"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>13</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>14</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="43"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>15</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="31">
-        <v>93</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>3</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="29">
-        <v>39</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="C31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>5</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="D31" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>16</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="29">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>7</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <v>8</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="D33" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="43"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>17</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>18</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="36"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>19</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>9</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>10</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <v>11</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>12</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
-        <v>13</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <v>14</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
-        <v>15</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="29">
+      <c r="D39" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>16</v>
-      </c>
-      <c r="B33" s="30" t="s">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="43"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>20</v>
+      </c>
+      <c r="B41" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="29">
+      <c r="C41" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>17</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
-        <v>18</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
-        <v>19</v>
-      </c>
-      <c r="B39" s="30" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>21</v>
+      </c>
+      <c r="B43" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="29">
+      <c r="C43" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>20</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
-        <v>21</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -1764,6 +2132,7 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D15:D16"/>
@@ -1773,7 +2142,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C17:C18"/>
@@ -1786,8 +2154,8 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="C35:C36"/>
@@ -1798,8 +2166,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="D43:D44"/>
@@ -1814,6 +2180,8 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A43:A44"/>

--- a/3.6/Evaluation_Serverless.xlsx
+++ b/3.6/Evaluation_Serverless.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE1E7F1-A3D7-4F32-9A1A-89D90C35FB9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60C478E-814A-4B3C-B82B-6E4F096AA8C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>Kategorie</t>
   </si>
@@ -269,10 +269,16 @@
     <t>53,2 Anfragen/sec</t>
   </si>
   <si>
-    <t>332 ms</t>
-  </si>
-  <si>
     <t>enthalten</t>
+  </si>
+  <si>
+    <t>28 s</t>
+  </si>
+  <si>
+    <t>leicht umsetzbar</t>
+  </si>
+  <si>
+    <t>167 ms</t>
   </si>
 </sst>
 </file>
@@ -1669,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3ECF3-CD24-491F-B6FE-28374C49E45B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,8 +1917,12 @@
       <c r="B23" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
+      <c r="C23" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
@@ -1927,8 +1937,12 @@
       <c r="B25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="37">
+        <v>19</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
@@ -1943,8 +1957,12 @@
       <c r="B27" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
@@ -1959,8 +1977,12 @@
       <c r="B29" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="36"/>
+      <c r="C29" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
@@ -2016,7 +2038,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D35" s="44">
         <v>0</v>
@@ -2096,7 +2118,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="36">
         <v>1</v>
